--- a/data/metadata/Informe-01-010051-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010051-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>hectareas-en-tierras-labradas-de-secano-cultivo-olivar</t>
   </si>
@@ -106,7 +106,7 @@
     <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-cultivos-herbaceos</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:provincia</t>
   </si>
   <si>
     <t>null</t>
@@ -139,7 +139,7 @@
     <t>iaest-measure:hectareas-en-tierras-labradas-con-cultivo-vinedo</t>
   </si>
   <si>
-    <t>iaest-dimension:hectareas-en-tierras-labradas-de-secano-otros-cultivos</t>
+    <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-otros-cultivos</t>
   </si>
   <si>
     <t>iaest-measure:comarca</t>
@@ -157,7 +157,7 @@
     <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-cultivos-frutales</t>
   </si>
   <si>
-    <t>iaest-dimension:hectareas-en-tierras-labradas-con-otros-cultivos</t>
+    <t>iaest-measure:hectareas-en-tierras-labradas-con-otros-cultivos</t>
   </si>
   <si>
     <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio-otros-cultivos</t>
@@ -172,9 +172,6 @@
     <t>xsd:int</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>skos:Concept</t>
   </si>
   <si>
@@ -182,12 +179,6 @@
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-hectareas-en-tierras-labradas-de-secano-otros-cultivos.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-hectareas-en-tierras-labradas-con-otros-cultivos.xlsx</t>
   </si>
 </sst>
 </file>
@@ -424,7 +415,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -460,7 +451,7 @@
         <v>50</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>32</v>
@@ -481,7 +472,7 @@
         <v>50</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>50</v>
@@ -504,31 +495,31 @@
         <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="M4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>52</v>
@@ -540,7 +531,7 @@
         <v>52</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>32</v>
@@ -561,7 +552,7 @@
         <v>52</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>52</v>
@@ -569,16 +560,10 @@
     </row>
     <row r="5">
       <c r="L5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010051-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010051-A-TC-TM-TP.xlsx
@@ -11,155 +11,155 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
-  <si>
-    <t>hectareas-en-tierras-labradas-de-secano-cultivo-olivar</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-con-cultivo-olivar</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-regadio-cultivo-olivar</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-regadio-cultivos-frutales</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-secano-cultivos-herbaceos</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>codigo-del-municipio</t>
-  </si>
-  <si>
-    <t>codigo-de-la-comarca</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-secano-cultivo-vinedo</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-regadio-cultivos-herbaceos</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-regadio</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>nombre-del-municipio</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-secano</t>
-  </si>
-  <si>
-    <t>numero-total-de-parcelas</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-con-cultivo-vinedo</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-secano-otros-cultivos</t>
-  </si>
-  <si>
-    <t>codigo-de-la-provincia</t>
-  </si>
-  <si>
-    <t>comarca</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-con-cultivos-herbaceos</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-con-cultivos-frutales</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-regadio-cultivo-vinedo</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-secano-cultivos-frutales</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-con-otros-cultivos</t>
-  </si>
-  <si>
-    <t>hectareas-en-tierras-labradas-de-regadio-otros-cultivos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+  <si>
+    <t>Hectáreas en tierras labradas de regadío cultivo viñedo</t>
+  </si>
+  <si>
+    <t>Código de la provincia</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de secano cultivos frutales</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas con cultivo olivar</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de regadío</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de regadío cultivo olivar</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de secano cultivo olivar</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de secano cultivos herbáceos</t>
+  </si>
+  <si>
+    <t>Código de la comarca</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de secano otros cultivos</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas con cultivos herbáceos</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas con otros cultivos</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de secano cultivo viñedo</t>
+  </si>
+  <si>
+    <t>Comarca</t>
+  </si>
+  <si>
+    <t>Nombre del municipio</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de regadío cultivos herbáceos</t>
+  </si>
+  <si>
+    <t>Número total de parcelas</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas con cultivos frutales</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas con cultivo viñedo</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de regadío cultivos frutales</t>
+  </si>
+  <si>
+    <t>Código del municipio</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de secano</t>
+  </si>
+  <si>
+    <t>Hectáreas en tierras labradas de regadío otros cultivos</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio-cultivo-vinedo</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-cultivos-frutales</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-con-cultivo-olivar</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio-cultivo-olivar</t>
   </si>
   <si>
     <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-cultivo-olivar</t>
   </si>
   <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-con-cultivo-olivar</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio-cultivo-olivar</t>
+    <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-cultivos-herbaceos</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-otros-cultivos</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-con-cultivos-herbaceos</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refPeriod</t>
+  </si>
+  <si>
+    <t>iaest-measure:provincia</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-con-otros-cultivos</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-cultivo-vinedo</t>
+  </si>
+  <si>
+    <t>iaest-measure:comarca</t>
+  </si>
+  <si>
+    <t>iaest-measure:nombre-del-municipio</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio-cultivos-herbaceos</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-total-de-parcelas</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-con-cultivos-frutales</t>
+  </si>
+  <si>
+    <t>iaest-measure:hectareas-en-tierras-labradas-con-cultivo-vinedo</t>
   </si>
   <si>
     <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio-cultivos-frutales</t>
   </si>
   <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-cultivos-herbaceos</t>
-  </si>
-  <si>
-    <t>iaest-measure:provincia</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-cultivo-vinedo</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio-cultivos-herbaceos</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:nombre-del-municipio</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
     <t>iaest-measure:hectareas-en-tierras-labradas-de-secano</t>
   </si>
   <si>
-    <t>iaest-measure:numero-total-de-parcelas</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-con-cultivo-vinedo</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-otros-cultivos</t>
-  </si>
-  <si>
-    <t>iaest-measure:comarca</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-con-cultivos-herbaceos</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-con-cultivos-frutales</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio-cultivo-vinedo</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-de-secano-cultivos-frutales</t>
-  </si>
-  <si>
-    <t>iaest-measure:hectareas-en-tierras-labradas-con-otros-cultivos</t>
-  </si>
-  <si>
     <t>iaest-measure:hectareas-en-tierras-labradas-de-regadio-otros-cultivos</t>
   </si>
   <si>
@@ -169,13 +169,19 @@
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:date</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -341,13 +347,13 @@
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>35</v>
@@ -374,22 +380,22 @@
         <v>42</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>48</v>
@@ -403,10 +409,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>50</v>
@@ -418,28 +424,28 @@
         <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>50</v>
@@ -454,7 +460,7 @@
         <v>50</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>50</v>
@@ -469,7 +475,7 @@
         <v>50</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>50</v>
@@ -483,73 +489,73 @@
         <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>52</v>
@@ -559,11 +565,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="L5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>55</v>
+      <c r="M5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010051-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010051-A-TC-TM-TP.xlsx
@@ -280,17 +280,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -300,15 +305,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
